--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A71A0-3F54-9D49-AA37-E41B0D45A310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76E585-CF08-774B-85C0-47BDD575A469}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111113</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111114</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76E585-CF08-774B-85C0-47BDD575A469}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C68D98-AE4A-EF41-9BB0-A56C0A511A96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
-  </si>
-  <si>
     <t>2111111114</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.1848@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C68D98-AE4A-EF41-9BB0-A56C0A511A96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E38BC-A1B7-D840-9060-1305BD0ABD27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>2111111114</t>
-  </si>
-  <si>
-    <t>lauren.weiniger.1848@yopmail.com</t>
+    <t>2111111115</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.1849@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E38BC-A1B7-D840-9060-1305BD0ABD27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF0435-4E34-DD48-91FF-1C60D438EEDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>2111111115</t>
-  </si>
-  <si>
-    <t>lauren.weiniger.1849@yopmail.com</t>
+    <t>lauren.weiniger.1850@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111116</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF0435-4E34-DD48-91FF-1C60D438EEDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0D074-7EE0-E947-B4DE-E4DCFCD7F3C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.1850@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111116</t>
+    <t>lauren.weiniger.1854@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111120</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0D074-7EE0-E947-B4DE-E4DCFCD7F3C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D34E9B-ABBD-354C-9DA6-417879AA8587}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.1854@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111120</t>
+    <t>lauren.weiniger.1855@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111121</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D34E9B-ABBD-354C-9DA6-417879AA8587}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07B57B-B4DB-964E-B1CD-4CBB14373940}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.1855@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111121</t>
+    <t>lauren.weiniger.1856@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111122</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07B57B-B4DB-964E-B1CD-4CBB14373940}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A1CAF-C222-5C40-AD66-DE9453D032B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.1856@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111122</t>
+    <t>lauren.weiniger.1857@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111123</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A1CAF-C222-5C40-AD66-DE9453D032B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA36D4-949D-E94E-ADD9-28BDDA3FB5B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.1857@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111123</t>
+    <t>lauren.weiniger.19849@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111124</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,7 +678,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{3E0540D0-7399-EA44-938F-197CAF0569D8}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{0B772FF9-B40A-884C-AF34-560FF84FB0BB}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{F9E6063B-CF68-0947-BBF7-0B874B842D9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA36D4-949D-E94E-ADD9-28BDDA3FB5B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE251195-A5F3-9643-B039-126E02062077}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19849@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111124</t>
+    <t>lauren.weiniger.19850@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111125</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE251195-A5F3-9643-B039-126E02062077}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC450A-B837-5F4E-992F-61DFBF8DAD6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19850@yopmail.com</t>
-  </si>
-  <si>
     <t>2111111125</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.19851@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC450A-B837-5F4E-992F-61DFBF8DAD6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B38F0-3627-4145-81A9-472D73A4F3A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B38F0-3627-4145-81A9-472D73A4F3A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9EB1E9-57AD-F24F-872E-468E65D210D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>2111111125</t>
-  </si>
-  <si>
-    <t>lauren.weiniger.19851@yopmail.com</t>
+    <t>lauren.weiniger.19852@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111126</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9EB1E9-57AD-F24F-872E-468E65D210D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247C47A-709C-3241-8082-278C2B7FC143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19852@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111126</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111127</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247C47A-709C-3241-8082-278C2B7FC143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF209E-EA1A-E949-A0E8-8CFA76E7F6FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19853@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111127</t>
+    <t>lauren.weiniger.19854@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111128</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF209E-EA1A-E949-A0E8-8CFA76E7F6FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775EAE6F-E647-7245-A20D-ECA4C67F6DCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19854@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111128</t>
+    <t>lauren.weiniger.19855@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111129</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775EAE6F-E647-7245-A20D-ECA4C67F6DCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD6EE5-AF99-EB4A-A6C4-84B59BAB32D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19855@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111129</t>
+    <t>lauren.weiniger.19856@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111130</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD6EE5-AF99-EB4A-A6C4-84B59BAB32D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC97FB-352F-9540-8822-92C2AF847A14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19856@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111130</t>
+    <t>lauren.weiniger.19857@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111131</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC97FB-352F-9540-8822-92C2AF847A14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A6E22F-15B4-C64C-B297-1C23D398318F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19857@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111131</t>
+    <t>lauren.weiniger.19858@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111132</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A6E22F-15B4-C64C-B297-1C23D398318F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34557A8E-E2CB-E448-B59C-96C55364669B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19858@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111132</t>
+    <t>lauren.weiniger.19859@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111133</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34557A8E-E2CB-E448-B59C-96C55364669B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486E2D9E-82D8-9F4C-81FB-2A5B9964D3E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19859@yopmail.com</t>
-  </si>
-  <si>
     <t>2111111133</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.19860@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486E2D9E-82D8-9F4C-81FB-2A5B9964D3E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC50224B-19BC-5845-B4C2-986E05765138}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>2111111133</t>
-  </si>
-  <si>
-    <t>lauren.weiniger.19860@yopmail.com</t>
+    <t>lauren.weiniger.19861@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111134</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
@@ -678,7 +678,6 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{3E0540D0-7399-EA44-938F-197CAF0569D8}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{F9E6063B-CF68-0947-BBF7-0B874B842D9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC50224B-19BC-5845-B4C2-986E05765138}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E8BD0-7AAA-4D4F-A3A7-24DAB9F32F85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19861@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111134</t>
+    <t>lauren.weiniger.19862@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111136</t>
   </si>
 </sst>
 </file>
@@ -678,6 +678,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{3E0540D0-7399-EA44-938F-197CAF0569D8}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{E47F39EA-414F-2C46-9A0F-E89D8FFBF620}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E8BD0-7AAA-4D4F-A3A7-24DAB9F32F85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B03DB-81EE-E348-84C4-BD3A8993EFDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19862@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111136</t>
+    <t>lauren.weiniger.19863@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111137</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B03DB-81EE-E348-84C4-BD3A8993EFDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB243A7-5B94-FD4E-A43C-CC2CCCD5A6FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19863@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111137</t>
+    <t>lauren.weiniger.19864@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111138</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB243A7-5B94-FD4E-A43C-CC2CCCD5A6FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB223F-1792-CD4F-A4EE-6C91A7CE3639}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19864@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111138</t>
+    <t>lauren.weiniger.19865@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111139</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB223F-1792-CD4F-A4EE-6C91A7CE3639}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAE053F-EBA7-5047-B038-689C23076155}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19865@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111139</t>
+    <t>lauren.weiniger.19866@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111140</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/RegistrationTests.xlsx
+++ b/src/test/resources/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAE053F-EBA7-5047-B038-689C23076155}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098886C-02A3-7547-B8D8-414E931D500D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19866@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111140</t>
+    <t>lauren.weiniger.19867@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111141</t>
   </si>
 </sst>
 </file>
